--- a/data/trans_bre/P1423-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.76251484188713</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.30699749858226</v>
+        <v>7.306997498582257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4564360003322972</v>
@@ -649,7 +649,7 @@
         <v>2.061871524677436</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5303642583236011</v>
+        <v>0.5303642583236008</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5837424028822233</v>
+        <v>0.3789656599943045</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.492868080079576</v>
+        <v>9.401823201365406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.339765414252142</v>
+        <v>8.323958083779569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.169210447741824</v>
+        <v>2.743135756508533</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05892603757273437</v>
+        <v>0.02674803942883719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.305666198586807</v>
+        <v>1.306973170272791</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.296609561316313</v>
+        <v>1.292737145314126</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1707663111134255</v>
+        <v>0.1650041220510733</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.641237222637403</v>
+        <v>6.662149824455915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.30435354502357</v>
+        <v>14.968449812898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.27948984020095</v>
+        <v>13.32705474266843</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.48570284897914</v>
+        <v>11.36225040793381</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.060049684883378</v>
+        <v>1.062975513805639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.249473646360325</v>
+        <v>3.212473935644304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.122726382354338</v>
+        <v>3.115799027756737</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9925029047942866</v>
+        <v>1.020790021892094</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.95083790253655</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.529963791492731</v>
+        <v>7.529963791492736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.077657322211365</v>
@@ -749,7 +749,7 @@
         <v>1.824599631868376</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.516692132142361</v>
+        <v>1.516692132142362</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.962936742366485</v>
+        <v>2.976610330214927</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.166981855234613</v>
+        <v>2.967557867498317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.891184300372848</v>
+        <v>2.906335479372893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.451033149222622</v>
+        <v>5.369359520428849</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9739782219074661</v>
+        <v>0.9738789692909414</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.642420597999494</v>
+        <v>0.608052068184483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7297295421653244</v>
+        <v>0.7170059346188477</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8662113968395888</v>
+        <v>0.8274986184976247</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.697249525494501</v>
+        <v>6.821827533131739</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.578538486580999</v>
+        <v>7.39691912269973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.928157522627279</v>
+        <v>6.90857306566377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.688302755760109</v>
+        <v>9.768844598085149</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.935854225413018</v>
+        <v>4.160177011963838</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.717970031114211</v>
+        <v>2.576510674814442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.432517512909151</v>
+        <v>3.400238601336834</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.483531925431173</v>
+        <v>2.488122061772597</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.548624932258532</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.551345570813257</v>
+        <v>5.551345570813258</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.954375361474711</v>
@@ -849,7 +849,7 @@
         <v>2.109491028365421</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.239478223240585</v>
+        <v>1.239478223240586</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.908465297107999</v>
+        <v>2.018774143598585</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.866946255750852</v>
+        <v>1.870454042929355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.302627994426339</v>
+        <v>2.310212691672992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.444283532302758</v>
+        <v>3.310876094911988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8032804267467532</v>
+        <v>0.8611001660626963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3392620022364994</v>
+        <v>0.3695895681770478</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7892253647754415</v>
+        <v>0.6886482670895511</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6130144339591638</v>
+        <v>0.596574112798506</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.04238827044222</v>
+        <v>5.113859378497124</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.696776965798914</v>
+        <v>6.761887490173181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.799928759688736</v>
+        <v>6.713211934904773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.615651320806842</v>
+        <v>7.635201399357602</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.117793958872002</v>
+        <v>4.034677202033343</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.263623949422166</v>
+        <v>2.342276805145025</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.733541257937108</v>
+        <v>4.600158419712084</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.116445157701584</v>
+        <v>2.123367588626343</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9586840003109612</v>
+        <v>1.222458582786454</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.419634844355409</v>
+        <v>1.450717353406388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.891668948069356</v>
+        <v>1.83624901241633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.842564967302324</v>
+        <v>1.821529539342808</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2551313179507391</v>
+        <v>0.2532225370106279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2993318129390867</v>
+        <v>0.2627674476126265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5653826030038911</v>
+        <v>0.6467506051492973</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3119150029965368</v>
+        <v>0.3064600982826718</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.236217340961145</v>
+        <v>7.023829181518071</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.079383790297651</v>
+        <v>6.820504965292022</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.656328501549087</v>
+        <v>6.727729442634272</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.916597104898156</v>
+        <v>6.19137806792275</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.652083437936736</v>
+        <v>5.51387697603626</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.695719710099138</v>
+        <v>4.463743043096907</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9.684524047464931</v>
+        <v>10.07417284763488</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.712480137577099</v>
+        <v>1.780896413702135</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.907529324035713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.29081471208638</v>
+        <v>6.290814712086378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.459436509910917</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.370175645662361</v>
+        <v>3.427933422785031</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.885707569322743</v>
+        <v>5.859813977251521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.747114175929018</v>
+        <v>5.70736356453353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.028661865533767</v>
+        <v>5.219314950825368</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9618054867435183</v>
+        <v>0.9647551178938539</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.211254803422798</v>
+        <v>1.220456541363309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.558746772085319</v>
+        <v>1.521486365675804</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7598213681239312</v>
+        <v>0.7919266457594262</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.542406175483665</v>
+        <v>5.573710036944863</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.405913642522574</v>
+        <v>8.479339641637775</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.127302226399369</v>
+        <v>8.148610331604637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.520745456083803</v>
+        <v>7.496449932998179</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.13619233072591</v>
+        <v>2.081877422073465</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.295463550918164</v>
+        <v>2.333303729614406</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.983929565548741</v>
+        <v>2.862987489299711</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.405682862721816</v>
+        <v>1.429608320705658</v>
       </c>
     </row>
     <row r="19">
